--- a/input/raw_data/final_report/data_extraction_series_data_end.xlsx
+++ b/input/raw_data/final_report/data_extraction_series_data_end.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10420"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10526"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jackgedge/Projects/msc_dissertation/iifo_motivation/input/raw_data/data_extraction/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jackgedge/Projects/msc_dissertation/iifo_motivation/input/raw_data/final_report/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7E896B80-5289-0245-914A-B9C152CF0820}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A2267C26-2BE4-DC44-811C-28AAE394B79F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="20560" yWindow="880" windowWidth="20560" windowHeight="12220" xr2:uid="{0E2D75EA-57F1-7A41-B7A5-2B66F384E0FB}"/>
+    <workbookView xWindow="0" yWindow="880" windowWidth="41120" windowHeight="24440" xr2:uid="{0E2D75EA-57F1-7A41-B7A5-2B66F384E0FB}"/>
   </bookViews>
   <sheets>
     <sheet name="series_data_end" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1681" uniqueCount="110">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1685" uniqueCount="111">
   <si>
     <t>Study_ID</t>
   </si>
@@ -350,12 +350,18 @@
   </si>
   <si>
     <t>12 complications. No other informatin.</t>
+  </si>
+  <si>
+    <t>Outcome_Complication_Cases</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="0.000"/>
+  </numFmts>
   <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
@@ -833,11 +839,12 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment textRotation="90"/>
     </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -1213,11 +1220,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5ECC6BD9-0A52-0246-BDA7-1FC0AB56AA9E}">
-  <dimension ref="A1:CH32"/>
+  <dimension ref="A1:CJ32"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A18" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B22" sqref="B22"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="CF26" sqref="CF26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1255,11 +1262,11 @@
     <col min="69" max="79" width="3.6640625" bestFit="1" customWidth="1"/>
     <col min="80" max="80" width="4.1640625" bestFit="1" customWidth="1"/>
     <col min="81" max="81" width="3.6640625" bestFit="1" customWidth="1"/>
-    <col min="82" max="82" width="3.6640625" customWidth="1"/>
-    <col min="83" max="86" width="3.6640625" bestFit="1" customWidth="1"/>
+    <col min="82" max="84" width="3.6640625" customWidth="1"/>
+    <col min="85" max="88" width="3.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:86" ht="239" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:88" ht="239" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1507,19 +1514,25 @@
         <v>81</v>
       </c>
       <c r="CE1" s="1" t="s">
-        <v>76</v>
+        <v>110</v>
       </c>
       <c r="CF1" s="1" t="s">
         <v>77</v>
       </c>
       <c r="CG1" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="CH1" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="CI1" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="CH1" s="1" t="s">
+      <c r="CJ1" s="1" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="2" spans="1:86" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:88" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>46</v>
       </c>
@@ -1754,20 +1767,20 @@
       <c r="CD2" t="s">
         <v>82</v>
       </c>
-      <c r="CE2">
+      <c r="CG2">
         <v>30</v>
       </c>
-      <c r="CF2" t="s">
-        <v>80</v>
-      </c>
-      <c r="CG2">
-        <v>1</v>
-      </c>
       <c r="CH2" t="s">
         <v>80</v>
       </c>
+      <c r="CI2">
+        <v>1</v>
+      </c>
+      <c r="CJ2" t="s">
+        <v>80</v>
+      </c>
     </row>
-    <row r="3" spans="1:86" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:88" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>131</v>
       </c>
@@ -2002,20 +2015,20 @@
       <c r="CD3" t="s">
         <v>84</v>
       </c>
-      <c r="CE3" t="s">
-        <v>80</v>
-      </c>
-      <c r="CF3" t="s">
-        <v>80</v>
-      </c>
-      <c r="CG3">
+      <c r="CG3" t="s">
+        <v>80</v>
+      </c>
+      <c r="CH3" t="s">
+        <v>80</v>
+      </c>
+      <c r="CI3">
         <v>12</v>
       </c>
-      <c r="CH3" t="s">
+      <c r="CJ3" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="4" spans="1:86" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:88" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>139</v>
       </c>
@@ -2250,20 +2263,20 @@
       <c r="CD4" t="s">
         <v>85</v>
       </c>
-      <c r="CE4" t="s">
-        <v>80</v>
-      </c>
-      <c r="CF4" t="s">
-        <v>80</v>
-      </c>
-      <c r="CG4">
+      <c r="CG4" t="s">
+        <v>80</v>
+      </c>
+      <c r="CH4" t="s">
+        <v>80</v>
+      </c>
+      <c r="CI4">
         <v>2</v>
       </c>
-      <c r="CH4" t="s">
+      <c r="CJ4" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="5" spans="1:86" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:88" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>192</v>
       </c>
@@ -2504,20 +2517,20 @@
       <c r="CD5" t="s">
         <v>80</v>
       </c>
-      <c r="CE5" t="s">
-        <v>80</v>
-      </c>
-      <c r="CF5">
+      <c r="CG5" t="s">
+        <v>80</v>
+      </c>
+      <c r="CH5">
         <v>0.26</v>
       </c>
-      <c r="CG5" t="s">
-        <v>80</v>
-      </c>
-      <c r="CH5">
+      <c r="CI5" t="s">
+        <v>80</v>
+      </c>
+      <c r="CJ5">
         <v>0.03</v>
       </c>
     </row>
-    <row r="6" spans="1:86" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:88" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>256</v>
       </c>
@@ -2764,20 +2777,20 @@
       <c r="CD6" t="s">
         <v>80</v>
       </c>
-      <c r="CE6" t="s">
-        <v>80</v>
-      </c>
-      <c r="CF6" t="s">
-        <v>80</v>
-      </c>
       <c r="CG6" t="s">
         <v>80</v>
       </c>
       <c r="CH6" t="s">
         <v>80</v>
       </c>
+      <c r="CI6" t="s">
+        <v>80</v>
+      </c>
+      <c r="CJ6" t="s">
+        <v>80</v>
+      </c>
     </row>
-    <row r="7" spans="1:86" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:88" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>266</v>
       </c>
@@ -3021,20 +3034,20 @@
       <c r="CD7" t="s">
         <v>90</v>
       </c>
-      <c r="CE7" t="s">
-        <v>80</v>
-      </c>
-      <c r="CF7">
+      <c r="CG7" t="s">
+        <v>80</v>
+      </c>
+      <c r="CH7">
         <v>0.3</v>
       </c>
-      <c r="CG7">
-        <v>1</v>
-      </c>
-      <c r="CH7">
+      <c r="CI7">
+        <v>1</v>
+      </c>
+      <c r="CJ7">
         <v>4.8000000000000001E-2</v>
       </c>
     </row>
-    <row r="8" spans="1:86" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:88" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>288</v>
       </c>
@@ -3278,20 +3291,20 @@
       <c r="CC8" t="s">
         <v>80</v>
       </c>
-      <c r="CE8" t="s">
-        <v>80</v>
-      </c>
-      <c r="CF8" t="s">
-        <v>80</v>
-      </c>
       <c r="CG8" t="s">
         <v>80</v>
       </c>
       <c r="CH8" t="s">
         <v>80</v>
       </c>
+      <c r="CI8" t="s">
+        <v>80</v>
+      </c>
+      <c r="CJ8" t="s">
+        <v>80</v>
+      </c>
     </row>
-    <row r="9" spans="1:86" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:88" x14ac:dyDescent="0.2">
       <c r="A9">
         <v>307</v>
       </c>
@@ -3535,20 +3548,20 @@
       <c r="CD9" t="s">
         <v>80</v>
       </c>
-      <c r="CE9">
-        <v>0</v>
-      </c>
-      <c r="CF9">
-        <v>0</v>
-      </c>
       <c r="CG9">
         <v>0</v>
       </c>
       <c r="CH9">
         <v>0</v>
       </c>
+      <c r="CI9">
+        <v>0</v>
+      </c>
+      <c r="CJ9">
+        <v>0</v>
+      </c>
     </row>
-    <row r="10" spans="1:86" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:88" x14ac:dyDescent="0.2">
       <c r="A10">
         <v>312</v>
       </c>
@@ -3795,20 +3808,20 @@
       <c r="CD10" t="s">
         <v>80</v>
       </c>
-      <c r="CE10" t="s">
-        <v>80</v>
-      </c>
-      <c r="CF10" t="s">
-        <v>80</v>
-      </c>
       <c r="CG10" t="s">
         <v>80</v>
       </c>
       <c r="CH10" t="s">
         <v>80</v>
       </c>
+      <c r="CI10" t="s">
+        <v>80</v>
+      </c>
+      <c r="CJ10" t="s">
+        <v>80</v>
+      </c>
     </row>
-    <row r="11" spans="1:86" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:88" x14ac:dyDescent="0.2">
       <c r="A11">
         <v>321</v>
       </c>
@@ -4052,20 +4065,20 @@
       <c r="CD11" t="s">
         <v>80</v>
       </c>
-      <c r="CE11">
+      <c r="CG11">
         <v>9</v>
       </c>
-      <c r="CF11" t="s">
-        <v>80</v>
-      </c>
-      <c r="CG11" t="s">
-        <v>80</v>
-      </c>
       <c r="CH11" t="s">
         <v>80</v>
       </c>
+      <c r="CI11" t="s">
+        <v>80</v>
+      </c>
+      <c r="CJ11" t="s">
+        <v>80</v>
+      </c>
     </row>
-    <row r="12" spans="1:86" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:88" x14ac:dyDescent="0.2">
       <c r="A12">
         <v>336</v>
       </c>
@@ -4312,20 +4325,20 @@
       <c r="CD12" t="s">
         <v>95</v>
       </c>
-      <c r="CE12" t="s">
-        <v>80</v>
-      </c>
-      <c r="CF12" t="s">
-        <v>80</v>
-      </c>
       <c r="CG12" t="s">
         <v>80</v>
       </c>
-      <c r="CH12">
+      <c r="CH12" t="s">
+        <v>80</v>
+      </c>
+      <c r="CI12" t="s">
+        <v>80</v>
+      </c>
+      <c r="CJ12">
         <v>0.13500000000000001</v>
       </c>
     </row>
-    <row r="13" spans="1:86" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:88" x14ac:dyDescent="0.2">
       <c r="A13">
         <v>342</v>
       </c>
@@ -4572,20 +4585,20 @@
       <c r="CD13" t="s">
         <v>80</v>
       </c>
-      <c r="CE13">
-        <v>0</v>
-      </c>
-      <c r="CF13">
-        <v>0</v>
-      </c>
-      <c r="CG13" t="s">
-        <v>80</v>
-      </c>
-      <c r="CH13" t="s">
+      <c r="CG13">
+        <v>0</v>
+      </c>
+      <c r="CH13">
+        <v>0</v>
+      </c>
+      <c r="CI13" t="s">
+        <v>80</v>
+      </c>
+      <c r="CJ13" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="14" spans="1:86" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:88" x14ac:dyDescent="0.2">
       <c r="A14">
         <v>401</v>
       </c>
@@ -4829,20 +4842,20 @@
       <c r="CD14" t="s">
         <v>80</v>
       </c>
-      <c r="CE14">
+      <c r="CG14">
         <v>21</v>
       </c>
-      <c r="CF14" t="s">
-        <v>80</v>
-      </c>
-      <c r="CG14">
+      <c r="CH14" t="s">
+        <v>80</v>
+      </c>
+      <c r="CI14">
         <v>4</v>
       </c>
-      <c r="CH14" t="s">
+      <c r="CJ14" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="15" spans="1:86" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:88" x14ac:dyDescent="0.2">
       <c r="A15">
         <v>432</v>
       </c>
@@ -5083,20 +5096,20 @@
       <c r="CD15" t="s">
         <v>98</v>
       </c>
-      <c r="CE15" t="s">
-        <v>80</v>
-      </c>
-      <c r="CF15" t="s">
-        <v>80</v>
-      </c>
-      <c r="CG15">
+      <c r="CG15" t="s">
+        <v>80</v>
+      </c>
+      <c r="CH15" t="s">
+        <v>80</v>
+      </c>
+      <c r="CI15">
         <v>2</v>
       </c>
-      <c r="CH15" t="s">
+      <c r="CJ15" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="16" spans="1:86" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:88" x14ac:dyDescent="0.2">
       <c r="A16">
         <v>441</v>
       </c>
@@ -5340,20 +5353,20 @@
       <c r="CD16" t="s">
         <v>80</v>
       </c>
-      <c r="CE16" t="s">
-        <v>80</v>
-      </c>
-      <c r="CF16">
+      <c r="CG16" t="s">
+        <v>80</v>
+      </c>
+      <c r="CH16">
         <v>0.5</v>
       </c>
-      <c r="CG16" t="s">
-        <v>80</v>
-      </c>
-      <c r="CH16" t="s">
+      <c r="CI16" t="s">
+        <v>80</v>
+      </c>
+      <c r="CJ16" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="17" spans="1:86" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:88" x14ac:dyDescent="0.2">
       <c r="A17">
         <v>442</v>
       </c>
@@ -5597,20 +5610,20 @@
       <c r="CD17" t="s">
         <v>80</v>
       </c>
-      <c r="CE17" t="s">
-        <v>80</v>
-      </c>
-      <c r="CF17" t="s">
-        <v>80</v>
-      </c>
       <c r="CG17" t="s">
         <v>80</v>
       </c>
       <c r="CH17" t="s">
         <v>80</v>
       </c>
+      <c r="CI17" t="s">
+        <v>80</v>
+      </c>
+      <c r="CJ17" t="s">
+        <v>80</v>
+      </c>
     </row>
-    <row r="18" spans="1:86" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:88" x14ac:dyDescent="0.2">
       <c r="A18">
         <v>450</v>
       </c>
@@ -5854,20 +5867,20 @@
       <c r="CD18" t="s">
         <v>99</v>
       </c>
-      <c r="CE18">
-        <v>0</v>
-      </c>
-      <c r="CF18">
-        <v>0</v>
-      </c>
       <c r="CG18">
+        <v>0</v>
+      </c>
+      <c r="CH18">
+        <v>0</v>
+      </c>
+      <c r="CI18">
         <v>2</v>
       </c>
-      <c r="CH18" t="s">
+      <c r="CJ18" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="19" spans="1:86" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:88" x14ac:dyDescent="0.2">
       <c r="A19">
         <v>461</v>
       </c>
@@ -6111,20 +6124,20 @@
       <c r="CD19" t="s">
         <v>100</v>
       </c>
-      <c r="CE19" t="s">
-        <v>80</v>
-      </c>
-      <c r="CF19" t="s">
-        <v>80</v>
-      </c>
       <c r="CG19" t="s">
         <v>80</v>
       </c>
       <c r="CH19" t="s">
         <v>80</v>
       </c>
+      <c r="CI19" t="s">
+        <v>80</v>
+      </c>
+      <c r="CJ19" t="s">
+        <v>80</v>
+      </c>
     </row>
-    <row r="20" spans="1:86" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:88" x14ac:dyDescent="0.2">
       <c r="A20">
         <v>509</v>
       </c>
@@ -6368,20 +6381,20 @@
       <c r="CD20" t="s">
         <v>80</v>
       </c>
-      <c r="CE20" t="s">
-        <v>80</v>
-      </c>
-      <c r="CF20">
+      <c r="CG20" t="s">
+        <v>80</v>
+      </c>
+      <c r="CH20">
         <v>0.224</v>
       </c>
-      <c r="CG20" t="s">
-        <v>80</v>
-      </c>
-      <c r="CH20">
+      <c r="CI20" t="s">
+        <v>80</v>
+      </c>
+      <c r="CJ20">
         <v>0.14299999999999999</v>
       </c>
     </row>
-    <row r="21" spans="1:86" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:88" x14ac:dyDescent="0.2">
       <c r="A21">
         <v>522</v>
       </c>
@@ -6625,20 +6638,20 @@
       <c r="CD21" t="s">
         <v>102</v>
       </c>
-      <c r="CE21">
-        <v>14</v>
-      </c>
-      <c r="CF21">
-        <v>8.4000000000000005E-2</v>
-      </c>
       <c r="CG21">
         <v>14</v>
       </c>
-      <c r="CH21" t="s">
+      <c r="CH21">
+        <v>8.4000000000000005E-2</v>
+      </c>
+      <c r="CI21">
+        <v>14</v>
+      </c>
+      <c r="CJ21" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="22" spans="1:86" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:88" x14ac:dyDescent="0.2">
       <c r="A22">
         <v>523</v>
       </c>
@@ -6885,20 +6898,26 @@
       <c r="CD22" t="s">
         <v>80</v>
       </c>
-      <c r="CE22">
+      <c r="CE22" t="s">
+        <v>80</v>
+      </c>
+      <c r="CF22" t="s">
+        <v>80</v>
+      </c>
+      <c r="CG22">
         <v>14</v>
       </c>
-      <c r="CF22" t="s">
-        <v>80</v>
-      </c>
-      <c r="CG22" t="s">
-        <v>80</v>
-      </c>
       <c r="CH22" t="s">
         <v>80</v>
       </c>
+      <c r="CI22" t="s">
+        <v>80</v>
+      </c>
+      <c r="CJ22" t="s">
+        <v>80</v>
+      </c>
     </row>
-    <row r="23" spans="1:86" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:88" x14ac:dyDescent="0.2">
       <c r="A23">
         <v>553</v>
       </c>
@@ -7142,20 +7161,20 @@
       <c r="CD23" t="s">
         <v>80</v>
       </c>
-      <c r="CE23">
+      <c r="CG23">
         <v>22</v>
       </c>
-      <c r="CF23" t="s">
-        <v>80</v>
-      </c>
-      <c r="CG23">
+      <c r="CH23" t="s">
+        <v>80</v>
+      </c>
+      <c r="CI23">
         <v>3</v>
       </c>
-      <c r="CH23" t="s">
+      <c r="CJ23" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="24" spans="1:86" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:88" x14ac:dyDescent="0.2">
       <c r="A24">
         <v>546</v>
       </c>
@@ -7396,20 +7415,20 @@
       <c r="CD24" t="s">
         <v>80</v>
       </c>
-      <c r="CE24" t="s">
-        <v>80</v>
-      </c>
-      <c r="CF24" t="s">
-        <v>80</v>
-      </c>
-      <c r="CG24">
+      <c r="CG24" t="s">
+        <v>80</v>
+      </c>
+      <c r="CH24" t="s">
+        <v>80</v>
+      </c>
+      <c r="CI24">
         <v>3</v>
       </c>
-      <c r="CH24" t="s">
+      <c r="CJ24" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="25" spans="1:86" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:88" x14ac:dyDescent="0.2">
       <c r="A25">
         <v>570</v>
       </c>
@@ -7653,20 +7672,20 @@
       <c r="CD25" t="s">
         <v>80</v>
       </c>
-      <c r="CE25">
-        <v>0</v>
-      </c>
-      <c r="CF25">
-        <v>0</v>
-      </c>
-      <c r="CG25" t="s">
-        <v>80</v>
-      </c>
-      <c r="CH25" t="s">
+      <c r="CG25">
+        <v>0</v>
+      </c>
+      <c r="CH25">
+        <v>0</v>
+      </c>
+      <c r="CI25" t="s">
+        <v>80</v>
+      </c>
+      <c r="CJ25" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="26" spans="1:86" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:88" x14ac:dyDescent="0.2">
       <c r="A26">
         <v>581</v>
       </c>
@@ -7911,19 +7930,25 @@
         <v>105</v>
       </c>
       <c r="CE26">
-        <v>0</v>
-      </c>
-      <c r="CF26">
-        <v>0</v>
+        <v>6</v>
+      </c>
+      <c r="CF26" s="2">
+        <v>0.158</v>
       </c>
       <c r="CG26">
-        <v>1</v>
-      </c>
-      <c r="CH26" t="s">
+        <v>0</v>
+      </c>
+      <c r="CH26">
+        <v>0</v>
+      </c>
+      <c r="CI26">
+        <v>1</v>
+      </c>
+      <c r="CJ26" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="27" spans="1:86" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:88" x14ac:dyDescent="0.2">
       <c r="A27">
         <v>588</v>
       </c>
@@ -8167,20 +8192,20 @@
       <c r="CD27" t="s">
         <v>106</v>
       </c>
-      <c r="CE27">
-        <v>0</v>
-      </c>
-      <c r="CF27">
-        <v>0</v>
-      </c>
       <c r="CG27">
         <v>0</v>
       </c>
       <c r="CH27">
         <v>0</v>
       </c>
+      <c r="CI27">
+        <v>0</v>
+      </c>
+      <c r="CJ27">
+        <v>0</v>
+      </c>
     </row>
-    <row r="28" spans="1:86" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:88" x14ac:dyDescent="0.2">
       <c r="A28">
         <v>646</v>
       </c>
@@ -8424,20 +8449,20 @@
       <c r="CD28" t="s">
         <v>107</v>
       </c>
-      <c r="CE28">
+      <c r="CG28">
         <v>15</v>
       </c>
-      <c r="CF28" t="s">
-        <v>80</v>
-      </c>
-      <c r="CG28">
-        <v>1</v>
-      </c>
       <c r="CH28" t="s">
         <v>80</v>
       </c>
+      <c r="CI28">
+        <v>1</v>
+      </c>
+      <c r="CJ28" t="s">
+        <v>80</v>
+      </c>
     </row>
-    <row r="29" spans="1:86" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:88" x14ac:dyDescent="0.2">
       <c r="A29">
         <v>647</v>
       </c>
@@ -8681,20 +8706,20 @@
       <c r="CD29" t="s">
         <v>80</v>
       </c>
-      <c r="CE29">
-        <v>0</v>
-      </c>
-      <c r="CF29">
-        <v>0</v>
-      </c>
       <c r="CG29">
         <v>0</v>
       </c>
       <c r="CH29">
         <v>0</v>
       </c>
+      <c r="CI29">
+        <v>0</v>
+      </c>
+      <c r="CJ29">
+        <v>0</v>
+      </c>
     </row>
-    <row r="30" spans="1:86" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:88" x14ac:dyDescent="0.2">
       <c r="A30">
         <v>679</v>
       </c>
@@ -8938,20 +8963,20 @@
       <c r="CD30" t="s">
         <v>108</v>
       </c>
-      <c r="CE30">
-        <v>0</v>
-      </c>
-      <c r="CF30">
-        <v>0</v>
-      </c>
       <c r="CG30">
+        <v>0</v>
+      </c>
+      <c r="CH30">
+        <v>0</v>
+      </c>
+      <c r="CI30">
         <v>4</v>
       </c>
-      <c r="CH30" t="s">
+      <c r="CJ30" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="31" spans="1:86" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:88" x14ac:dyDescent="0.2">
       <c r="A31">
         <v>682</v>
       </c>
@@ -9195,20 +9220,20 @@
       <c r="CD31" t="s">
         <v>109</v>
       </c>
-      <c r="CE31">
-        <v>0</v>
-      </c>
-      <c r="CF31">
-        <v>0</v>
-      </c>
       <c r="CG31">
         <v>0</v>
       </c>
       <c r="CH31">
         <v>0</v>
       </c>
+      <c r="CI31">
+        <v>0</v>
+      </c>
+      <c r="CJ31">
+        <v>0</v>
+      </c>
     </row>
-    <row r="32" spans="1:86" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:88" x14ac:dyDescent="0.2">
       <c r="A32">
         <v>687</v>
       </c>
@@ -9452,16 +9477,16 @@
       <c r="CD32" t="s">
         <v>80</v>
       </c>
-      <c r="CE32">
+      <c r="CG32">
         <v>16</v>
       </c>
-      <c r="CF32">
+      <c r="CH32">
         <v>0.5</v>
       </c>
-      <c r="CG32">
-        <v>0</v>
-      </c>
-      <c r="CH32">
+      <c r="CI32">
+        <v>0</v>
+      </c>
+      <c r="CJ32">
         <v>0</v>
       </c>
     </row>
